--- a/250709 JS 1조 1945 게임 -일정표.xlsx
+++ b/250709 JS 1조 1945 게임 -일정표.xlsx
@@ -21,37 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <x:si>
-    <x:t>설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-07-13(일)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발 완료 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-07-12(토)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-07-17(목)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정표 / 개발 계획서 작성</x:t>
+    <x:t>2025-07-09(수)</x:t>
   </x:si>
   <x:si>
     <x:t>2025-07-16(수)</x:t>
@@ -60,23 +30,50 @@
     <x:t>2025-07-10(목)</x:t>
   </x:si>
   <x:si>
-    <x:t>2025-07-09(수)</x:t>
+    <x:t>2025-07-15(화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디버깅 및 코드 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-07-11(금)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-07-14(월)</x:t>
   </x:si>
   <x:si>
     <x:t>코드 취합 및 
 테스트</x:t>
   </x:si>
   <x:si>
-    <x:t>2025-07-15(화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-07-14(월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-07-11(금)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디버깅 및 코드 테스트</x:t>
+    <x:t>플래쉬 이미지 추출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 구조 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 UI 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 주제 선정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 분석서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발 완료 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-07-17(목)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정표 / 개발 계획서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-07-12(토)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-07-13(일)</x:t>
   </x:si>
   <x:si>
     <x:t>팀원 : 김현태, 윤광훈, 오세라</x:t>
@@ -85,19 +82,16 @@
     <x:t>HTML5, CSS3, Java Script를 이용한 게임 만들기</x:t>
   </x:si>
   <x:si>
-    <x:t>요구사항 분석서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 구조 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 UI 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 주제 선정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플래쉬 이미지 추출</x:t>
+    <x:t>스테이지 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 맵 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주제 선정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 구현</x:t>
   </x:si>
   <x:si>
     <x:t>메인 화면</x:t>
@@ -109,37 +103,43 @@
     <x:t>코드 취합하기</x:t>
   </x:si>
   <x:si>
+    <x:t>아이템 구현</x:t>
+  </x:si>
+  <x:si>
     <x:t>개발 일정표</x:t>
   </x:si>
   <x:si>
-    <x:t>아이템 구현</x:t>
-  </x:si>
-  <x:si>
     <x:t>제출 및 발표</x:t>
   </x:si>
   <x:si>
-    <x:t>스테이지 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 맵 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주제 선정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 구현</x:t>
+    <x:t>플레이어 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보스 구현</x:t>
   </x:si>
   <x:si>
     <x:t>적 구현</x:t>
   </x:si>
   <x:si>
-    <x:t>배경 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이어 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스 구현</x:t>
+    <x:t>항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -232,6 +232,18 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffa0b4e6"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffd8bee4"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor rgb="ffd9d9d9"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
@@ -242,18 +254,6 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffa0b4e6"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffd8bee4"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
   <x:borders count="41">
     <x:border>
@@ -719,6 +719,48 @@
       </x:bottom>
     </x:border>
     <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
       <x:left style="thin">
         <x:color auto="1"/>
       </x:left>
@@ -728,102 +770,60 @@
       <x:top style="thin">
         <x:color auto="1"/>
       </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="double">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
       <x:bottom>
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="medium">
+      <x:left style="thin">
         <x:color auto="1"/>
       </x:left>
       <x:right>
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="double">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="double">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="double">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="double">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="medium">
         <x:color auto="1"/>
       </x:top>
       <x:bottom>
@@ -1427,71 +1427,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1596,32 +1531,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1791,6 +1700,292 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1804,39 +1999,39 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="6" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="6" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="6" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="6" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="6" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="6" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="164" fontId="6" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="6" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="6" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="6" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="6" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="6" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1908,338 +2103,143 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2547,7 +2547,7 @@
   <x:dimension ref="A1:AM23"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="S12" activeCellId="0" sqref="S12:S12"/>
+      <x:selection activeCell="T12" activeCellId="0" sqref="T12:T12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -2559,97 +2559,97 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A1" s="74" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B1" s="74"/>
-      <x:c r="C1" s="74"/>
-      <x:c r="D1" s="74"/>
-      <x:c r="E1" s="74"/>
-      <x:c r="F1" s="74"/>
-      <x:c r="G1" s="74"/>
-      <x:c r="H1" s="74"/>
-      <x:c r="I1" s="74"/>
-      <x:c r="J1" s="74"/>
-      <x:c r="K1" s="74"/>
-      <x:c r="L1" s="74"/>
-      <x:c r="M1" s="74"/>
-      <x:c r="N1" s="74"/>
-      <x:c r="O1" s="74"/>
-      <x:c r="P1" s="74"/>
-      <x:c r="Q1" s="74"/>
-      <x:c r="R1" s="74"/>
-      <x:c r="S1" s="74"/>
-      <x:c r="T1" s="74"/>
-      <x:c r="U1" s="74"/>
-      <x:c r="V1" s="74"/>
-      <x:c r="W1" s="74"/>
-      <x:c r="X1" s="74"/>
-      <x:c r="Y1" s="74"/>
-      <x:c r="Z1" s="74"/>
-      <x:c r="AA1" s="74"/>
-      <x:c r="AB1" s="74"/>
-      <x:c r="AC1" s="74"/>
-      <x:c r="AD1" s="74"/>
-      <x:c r="AE1" s="74"/>
-      <x:c r="AF1" s="74"/>
-      <x:c r="AG1" s="74"/>
-      <x:c r="AH1" s="74"/>
-      <x:c r="AI1" s="74"/>
-      <x:c r="AJ1" s="74"/>
-      <x:c r="AK1" s="74"/>
-      <x:c r="AL1" s="74"/>
-      <x:c r="AM1" s="74"/>
+      <x:c r="A1" s="89" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="89"/>
+      <x:c r="C1" s="89"/>
+      <x:c r="D1" s="89"/>
+      <x:c r="E1" s="89"/>
+      <x:c r="F1" s="89"/>
+      <x:c r="G1" s="89"/>
+      <x:c r="H1" s="89"/>
+      <x:c r="I1" s="89"/>
+      <x:c r="J1" s="89"/>
+      <x:c r="K1" s="89"/>
+      <x:c r="L1" s="89"/>
+      <x:c r="M1" s="89"/>
+      <x:c r="N1" s="89"/>
+      <x:c r="O1" s="89"/>
+      <x:c r="P1" s="89"/>
+      <x:c r="Q1" s="89"/>
+      <x:c r="R1" s="89"/>
+      <x:c r="S1" s="89"/>
+      <x:c r="T1" s="89"/>
+      <x:c r="U1" s="89"/>
+      <x:c r="V1" s="89"/>
+      <x:c r="W1" s="89"/>
+      <x:c r="X1" s="89"/>
+      <x:c r="Y1" s="89"/>
+      <x:c r="Z1" s="89"/>
+      <x:c r="AA1" s="89"/>
+      <x:c r="AB1" s="89"/>
+      <x:c r="AC1" s="89"/>
+      <x:c r="AD1" s="89"/>
+      <x:c r="AE1" s="89"/>
+      <x:c r="AF1" s="89"/>
+      <x:c r="AG1" s="89"/>
+      <x:c r="AH1" s="89"/>
+      <x:c r="AI1" s="89"/>
+      <x:c r="AJ1" s="89"/>
+      <x:c r="AK1" s="89"/>
+      <x:c r="AL1" s="89"/>
+      <x:c r="AM1" s="89"/>
     </x:row>
     <x:row r="2" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A2" s="74" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B2" s="74"/>
-      <x:c r="C2" s="74"/>
-      <x:c r="D2" s="74"/>
-      <x:c r="E2" s="74"/>
-      <x:c r="F2" s="74"/>
-      <x:c r="G2" s="74"/>
-      <x:c r="H2" s="74"/>
-      <x:c r="I2" s="74"/>
-      <x:c r="J2" s="74"/>
-      <x:c r="K2" s="74"/>
-      <x:c r="L2" s="74"/>
-      <x:c r="M2" s="74"/>
-      <x:c r="N2" s="74"/>
-      <x:c r="O2" s="74"/>
-      <x:c r="P2" s="74"/>
-      <x:c r="Q2" s="74"/>
-      <x:c r="R2" s="74"/>
-      <x:c r="S2" s="74"/>
-      <x:c r="T2" s="74"/>
-      <x:c r="U2" s="74"/>
-      <x:c r="V2" s="74"/>
-      <x:c r="W2" s="74"/>
-      <x:c r="X2" s="74"/>
-      <x:c r="Y2" s="74"/>
-      <x:c r="Z2" s="74"/>
-      <x:c r="AA2" s="74"/>
-      <x:c r="AB2" s="74"/>
-      <x:c r="AC2" s="74"/>
-      <x:c r="AD2" s="74"/>
-      <x:c r="AE2" s="74"/>
-      <x:c r="AF2" s="74"/>
-      <x:c r="AG2" s="74"/>
-      <x:c r="AH2" s="74"/>
-      <x:c r="AI2" s="74"/>
-      <x:c r="AJ2" s="74"/>
-      <x:c r="AK2" s="74"/>
-      <x:c r="AL2" s="74"/>
-      <x:c r="AM2" s="74"/>
+      <x:c r="A2" s="89" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B2" s="89"/>
+      <x:c r="C2" s="89"/>
+      <x:c r="D2" s="89"/>
+      <x:c r="E2" s="89"/>
+      <x:c r="F2" s="89"/>
+      <x:c r="G2" s="89"/>
+      <x:c r="H2" s="89"/>
+      <x:c r="I2" s="89"/>
+      <x:c r="J2" s="89"/>
+      <x:c r="K2" s="89"/>
+      <x:c r="L2" s="89"/>
+      <x:c r="M2" s="89"/>
+      <x:c r="N2" s="89"/>
+      <x:c r="O2" s="89"/>
+      <x:c r="P2" s="89"/>
+      <x:c r="Q2" s="89"/>
+      <x:c r="R2" s="89"/>
+      <x:c r="S2" s="89"/>
+      <x:c r="T2" s="89"/>
+      <x:c r="U2" s="89"/>
+      <x:c r="V2" s="89"/>
+      <x:c r="W2" s="89"/>
+      <x:c r="X2" s="89"/>
+      <x:c r="Y2" s="89"/>
+      <x:c r="Z2" s="89"/>
+      <x:c r="AA2" s="89"/>
+      <x:c r="AB2" s="89"/>
+      <x:c r="AC2" s="89"/>
+      <x:c r="AD2" s="89"/>
+      <x:c r="AE2" s="89"/>
+      <x:c r="AF2" s="89"/>
+      <x:c r="AG2" s="89"/>
+      <x:c r="AH2" s="89"/>
+      <x:c r="AI2" s="89"/>
+      <x:c r="AJ2" s="89"/>
+      <x:c r="AK2" s="89"/>
+      <x:c r="AL2" s="89"/>
+      <x:c r="AM2" s="89"/>
     </x:row>
     <x:row r="3" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A3" s="83" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B3" s="84"/>
-      <x:c r="C3" s="85"/>
+      <x:c r="A3" s="98" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B3" s="99"/>
+      <x:c r="C3" s="100"/>
       <x:c r="D3" s="3"/>
       <x:c r="E3" s="3"/>
       <x:c r="F3" s="4"/>
@@ -2689,76 +2689,76 @@
     </x:row>
     <x:row r="4" spans="1:39" ht="21.94999999999999928946" customHeight="1">
       <x:c r="A4" s="16" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B4" s="16" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C4" s="32"/>
+      <x:c r="D4" s="91" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E4" s="91"/>
+      <x:c r="F4" s="91"/>
+      <x:c r="G4" s="92"/>
+      <x:c r="H4" s="90" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I4" s="91"/>
+      <x:c r="J4" s="91"/>
+      <x:c r="K4" s="92"/>
+      <x:c r="L4" s="90" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M4" s="91"/>
+      <x:c r="N4" s="91"/>
+      <x:c r="O4" s="92"/>
+      <x:c r="P4" s="90" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="Q4" s="91"/>
+      <x:c r="R4" s="91"/>
+      <x:c r="S4" s="92"/>
+      <x:c r="T4" s="90" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="U4" s="91"/>
+      <x:c r="V4" s="91"/>
+      <x:c r="W4" s="92"/>
+      <x:c r="X4" s="90" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Y4" s="91"/>
+      <x:c r="Z4" s="91"/>
+      <x:c r="AA4" s="92"/>
+      <x:c r="AB4" s="90" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AC4" s="91"/>
+      <x:c r="AD4" s="91"/>
+      <x:c r="AE4" s="92"/>
+      <x:c r="AF4" s="90" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B4" s="16" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="32"/>
-      <x:c r="D4" s="76" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" s="76"/>
-      <x:c r="F4" s="76"/>
-      <x:c r="G4" s="77"/>
-      <x:c r="H4" s="75" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I4" s="76"/>
-      <x:c r="J4" s="76"/>
-      <x:c r="K4" s="77"/>
-      <x:c r="L4" s="75" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="M4" s="76"/>
-      <x:c r="N4" s="76"/>
-      <x:c r="O4" s="77"/>
-      <x:c r="P4" s="75" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="Q4" s="76"/>
-      <x:c r="R4" s="76"/>
-      <x:c r="S4" s="77"/>
-      <x:c r="T4" s="75" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="U4" s="76"/>
-      <x:c r="V4" s="76"/>
-      <x:c r="W4" s="77"/>
-      <x:c r="X4" s="75" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="Y4" s="76"/>
-      <x:c r="Z4" s="76"/>
-      <x:c r="AA4" s="77"/>
-      <x:c r="AB4" s="75" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="AC4" s="76"/>
-      <x:c r="AD4" s="76"/>
-      <x:c r="AE4" s="77"/>
-      <x:c r="AF4" s="75" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="AG4" s="76"/>
-      <x:c r="AH4" s="76"/>
-      <x:c r="AI4" s="77"/>
-      <x:c r="AJ4" s="75" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="AK4" s="76"/>
-      <x:c r="AL4" s="76"/>
-      <x:c r="AM4" s="77"/>
+      <x:c r="AG4" s="91"/>
+      <x:c r="AH4" s="91"/>
+      <x:c r="AI4" s="92"/>
+      <x:c r="AJ4" s="90" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="AK4" s="91"/>
+      <x:c r="AL4" s="91"/>
+      <x:c r="AM4" s="92"/>
     </x:row>
     <x:row r="5" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A5" s="82" t="s">
-        <x:v>4</x:v>
+      <x:c r="A5" s="97" t="s">
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B5" s="18" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="33" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="29"/>
       <x:c r="E5" s="19"/>
@@ -2798,12 +2798,12 @@
       <x:c r="AM5" s="24"/>
     </x:row>
     <x:row r="6" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A6" s="79"/>
-      <x:c r="B6" s="78" t="s">
-        <x:v>27</x:v>
+      <x:c r="A6" s="94"/>
+      <x:c r="B6" s="93" t="s">
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C6" s="34" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D6" s="30"/>
       <x:c r="E6" s="25"/>
@@ -2843,10 +2843,10 @@
       <x:c r="AM6" s="27"/>
     </x:row>
     <x:row r="7" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A7" s="79"/>
-      <x:c r="B7" s="80"/>
+      <x:c r="A7" s="94"/>
+      <x:c r="B7" s="95"/>
       <x:c r="C7" s="35" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D7" s="17"/>
       <x:c r="E7" s="8"/>
@@ -2886,12 +2886,12 @@
       <x:c r="AM7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A8" s="79"/>
-      <x:c r="B8" s="78" t="s">
-        <x:v>0</x:v>
+      <x:c r="A8" s="94"/>
+      <x:c r="B8" s="93" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C8" s="34" t="s">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D8" s="30"/>
       <x:c r="E8" s="25"/>
@@ -2899,8 +2899,8 @@
       <x:c r="G8" s="27"/>
       <x:c r="H8" s="42"/>
       <x:c r="I8" s="43"/>
-      <x:c r="J8" s="48"/>
-      <x:c r="K8" s="49"/>
+      <x:c r="J8" s="104"/>
+      <x:c r="K8" s="105"/>
       <x:c r="L8" s="28"/>
       <x:c r="M8" s="25"/>
       <x:c r="N8" s="26"/>
@@ -2931,10 +2931,10 @@
       <x:c r="AM8" s="27"/>
     </x:row>
     <x:row r="9" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A9" s="79"/>
-      <x:c r="B9" s="79"/>
+      <x:c r="A9" s="94"/>
+      <x:c r="B9" s="94"/>
       <x:c r="C9" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D9" s="5"/>
       <x:c r="E9" s="2"/>
@@ -2942,7 +2942,7 @@
       <x:c r="G9" s="6"/>
       <x:c r="H9" s="44"/>
       <x:c r="I9" s="45"/>
-      <x:c r="J9" s="50"/>
+      <x:c r="J9" s="106"/>
       <x:c r="K9" s="45"/>
       <x:c r="L9" s="7"/>
       <x:c r="M9" s="2"/>
@@ -2974,62 +2974,62 @@
       <x:c r="AM9" s="6"/>
     </x:row>
     <x:row r="10" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A10" s="82"/>
-      <x:c r="B10" s="86"/>
+      <x:c r="A10" s="97"/>
+      <x:c r="B10" s="101"/>
       <x:c r="C10" s="36" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D10" s="53"/>
-      <x:c r="E10" s="54"/>
-      <x:c r="F10" s="55"/>
-      <x:c r="G10" s="56"/>
-      <x:c r="H10" s="57"/>
-      <x:c r="I10" s="58"/>
-      <x:c r="J10" s="59"/>
-      <x:c r="K10" s="60"/>
-      <x:c r="L10" s="61"/>
-      <x:c r="M10" s="54"/>
-      <x:c r="N10" s="55"/>
-      <x:c r="O10" s="56"/>
-      <x:c r="P10" s="61"/>
-      <x:c r="Q10" s="54"/>
-      <x:c r="R10" s="55"/>
-      <x:c r="S10" s="56"/>
-      <x:c r="T10" s="61"/>
-      <x:c r="U10" s="54"/>
-      <x:c r="V10" s="55"/>
-      <x:c r="W10" s="56"/>
-      <x:c r="X10" s="61"/>
-      <x:c r="Y10" s="54"/>
-      <x:c r="Z10" s="55"/>
-      <x:c r="AA10" s="56"/>
-      <x:c r="AB10" s="61"/>
-      <x:c r="AC10" s="54"/>
-      <x:c r="AD10" s="55"/>
-      <x:c r="AE10" s="56"/>
-      <x:c r="AF10" s="61"/>
-      <x:c r="AG10" s="54"/>
-      <x:c r="AH10" s="55"/>
-      <x:c r="AI10" s="56"/>
-      <x:c r="AJ10" s="61"/>
-      <x:c r="AK10" s="54"/>
-      <x:c r="AL10" s="55"/>
-      <x:c r="AM10" s="56"/>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="48"/>
+      <x:c r="E10" s="49"/>
+      <x:c r="F10" s="50"/>
+      <x:c r="G10" s="51"/>
+      <x:c r="H10" s="52"/>
+      <x:c r="I10" s="53"/>
+      <x:c r="J10" s="107"/>
+      <x:c r="K10" s="108"/>
+      <x:c r="L10" s="54"/>
+      <x:c r="M10" s="49"/>
+      <x:c r="N10" s="50"/>
+      <x:c r="O10" s="51"/>
+      <x:c r="P10" s="54"/>
+      <x:c r="Q10" s="49"/>
+      <x:c r="R10" s="50"/>
+      <x:c r="S10" s="51"/>
+      <x:c r="T10" s="54"/>
+      <x:c r="U10" s="49"/>
+      <x:c r="V10" s="50"/>
+      <x:c r="W10" s="51"/>
+      <x:c r="X10" s="54"/>
+      <x:c r="Y10" s="49"/>
+      <x:c r="Z10" s="50"/>
+      <x:c r="AA10" s="51"/>
+      <x:c r="AB10" s="54"/>
+      <x:c r="AC10" s="49"/>
+      <x:c r="AD10" s="50"/>
+      <x:c r="AE10" s="51"/>
+      <x:c r="AF10" s="54"/>
+      <x:c r="AG10" s="49"/>
+      <x:c r="AH10" s="50"/>
+      <x:c r="AI10" s="51"/>
+      <x:c r="AJ10" s="54"/>
+      <x:c r="AK10" s="49"/>
+      <x:c r="AL10" s="50"/>
+      <x:c r="AM10" s="51"/>
     </x:row>
     <x:row r="11" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A11" s="79"/>
-      <x:c r="B11" s="80"/>
+      <x:c r="A11" s="94"/>
+      <x:c r="B11" s="95"/>
       <x:c r="C11" s="35" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D11" s="17"/>
       <x:c r="E11" s="8"/>
       <x:c r="F11" s="9"/>
       <x:c r="G11" s="10"/>
-      <x:c r="H11" s="46"/>
-      <x:c r="I11" s="47"/>
-      <x:c r="J11" s="51"/>
-      <x:c r="K11" s="52"/>
+      <x:c r="H11" s="102"/>
+      <x:c r="I11" s="103"/>
+      <x:c r="J11" s="46"/>
+      <x:c r="K11" s="47"/>
       <x:c r="L11" s="11"/>
       <x:c r="M11" s="8"/>
       <x:c r="N11" s="9"/>
@@ -3060,25 +3060,25 @@
       <x:c r="AM11" s="10"/>
     </x:row>
     <x:row r="12" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A12" s="79"/>
-      <x:c r="B12" s="78" t="s">
-        <x:v>2</x:v>
+      <x:c r="A12" s="94"/>
+      <x:c r="B12" s="93" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="34" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D12" s="30"/>
       <x:c r="E12" s="25"/>
       <x:c r="F12" s="26"/>
       <x:c r="G12" s="27"/>
-      <x:c r="H12" s="87"/>
-      <x:c r="I12" s="88"/>
-      <x:c r="J12" s="89"/>
-      <x:c r="K12" s="90"/>
-      <x:c r="L12" s="87"/>
-      <x:c r="M12" s="88"/>
-      <x:c r="N12" s="89"/>
-      <x:c r="O12" s="90"/>
+      <x:c r="H12" s="67"/>
+      <x:c r="I12" s="68"/>
+      <x:c r="J12" s="69"/>
+      <x:c r="K12" s="70"/>
+      <x:c r="L12" s="67"/>
+      <x:c r="M12" s="68"/>
+      <x:c r="N12" s="69"/>
+      <x:c r="O12" s="70"/>
       <x:c r="P12" s="28"/>
       <x:c r="Q12" s="25"/>
       <x:c r="R12" s="26"/>
@@ -3087,10 +3087,10 @@
       <x:c r="U12" s="25"/>
       <x:c r="V12" s="26"/>
       <x:c r="W12" s="27"/>
-      <x:c r="X12" s="66"/>
-      <x:c r="Y12" s="67"/>
-      <x:c r="Z12" s="68"/>
-      <x:c r="AA12" s="69"/>
+      <x:c r="X12" s="59"/>
+      <x:c r="Y12" s="60"/>
+      <x:c r="Z12" s="61"/>
+      <x:c r="AA12" s="62"/>
       <x:c r="AB12" s="28"/>
       <x:c r="AC12" s="25"/>
       <x:c r="AD12" s="26"/>
@@ -3105,23 +3105,23 @@
       <x:c r="AM12" s="27"/>
     </x:row>
     <x:row r="13" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A13" s="79"/>
-      <x:c r="B13" s="79"/>
+      <x:c r="A13" s="94"/>
+      <x:c r="B13" s="94"/>
       <x:c r="C13" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D13" s="5"/>
       <x:c r="E13" s="2"/>
       <x:c r="F13" s="1"/>
       <x:c r="G13" s="6"/>
-      <x:c r="H13" s="62"/>
-      <x:c r="I13" s="63"/>
-      <x:c r="J13" s="64"/>
-      <x:c r="K13" s="65"/>
-      <x:c r="L13" s="62"/>
-      <x:c r="M13" s="63"/>
-      <x:c r="N13" s="64"/>
-      <x:c r="O13" s="65"/>
+      <x:c r="H13" s="55"/>
+      <x:c r="I13" s="56"/>
+      <x:c r="J13" s="57"/>
+      <x:c r="K13" s="58"/>
+      <x:c r="L13" s="55"/>
+      <x:c r="M13" s="56"/>
+      <x:c r="N13" s="57"/>
+      <x:c r="O13" s="58"/>
       <x:c r="P13" s="7"/>
       <x:c r="Q13" s="2"/>
       <x:c r="R13" s="1"/>
@@ -3130,10 +3130,10 @@
       <x:c r="U13" s="2"/>
       <x:c r="V13" s="1"/>
       <x:c r="W13" s="6"/>
-      <x:c r="X13" s="72"/>
-      <x:c r="Y13" s="73"/>
-      <x:c r="Z13" s="70"/>
-      <x:c r="AA13" s="71"/>
+      <x:c r="X13" s="65"/>
+      <x:c r="Y13" s="66"/>
+      <x:c r="Z13" s="63"/>
+      <x:c r="AA13" s="64"/>
       <x:c r="AB13" s="7"/>
       <x:c r="AC13" s="2"/>
       <x:c r="AD13" s="1"/>
@@ -3148,31 +3148,31 @@
       <x:c r="AM13" s="6"/>
     </x:row>
     <x:row r="14" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A14" s="79"/>
-      <x:c r="B14" s="79"/>
+      <x:c r="A14" s="94"/>
+      <x:c r="B14" s="94"/>
       <x:c r="C14" s="36" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D14" s="5"/>
       <x:c r="E14" s="2"/>
       <x:c r="F14" s="1"/>
       <x:c r="G14" s="6"/>
-      <x:c r="H14" s="62"/>
-      <x:c r="I14" s="63"/>
-      <x:c r="J14" s="64"/>
-      <x:c r="K14" s="65"/>
-      <x:c r="L14" s="62"/>
-      <x:c r="M14" s="63"/>
-      <x:c r="N14" s="64"/>
-      <x:c r="O14" s="65"/>
-      <x:c r="P14" s="62"/>
-      <x:c r="Q14" s="63"/>
-      <x:c r="R14" s="64"/>
-      <x:c r="S14" s="65"/>
-      <x:c r="T14" s="62"/>
-      <x:c r="U14" s="63"/>
-      <x:c r="V14" s="64"/>
-      <x:c r="W14" s="65"/>
+      <x:c r="H14" s="55"/>
+      <x:c r="I14" s="56"/>
+      <x:c r="J14" s="57"/>
+      <x:c r="K14" s="58"/>
+      <x:c r="L14" s="55"/>
+      <x:c r="M14" s="56"/>
+      <x:c r="N14" s="57"/>
+      <x:c r="O14" s="58"/>
+      <x:c r="P14" s="55"/>
+      <x:c r="Q14" s="56"/>
+      <x:c r="R14" s="57"/>
+      <x:c r="S14" s="58"/>
+      <x:c r="T14" s="55"/>
+      <x:c r="U14" s="56"/>
+      <x:c r="V14" s="57"/>
+      <x:c r="W14" s="58"/>
       <x:c r="X14" s="7"/>
       <x:c r="Y14" s="2"/>
       <x:c r="Z14" s="1"/>
@@ -3191,31 +3191,31 @@
       <x:c r="AM14" s="6"/>
     </x:row>
     <x:row r="15" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A15" s="79"/>
-      <x:c r="B15" s="79"/>
+      <x:c r="A15" s="94"/>
+      <x:c r="B15" s="94"/>
       <x:c r="C15" s="36" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D15" s="5"/>
       <x:c r="E15" s="2"/>
       <x:c r="F15" s="1"/>
       <x:c r="G15" s="6"/>
-      <x:c r="H15" s="62"/>
-      <x:c r="I15" s="63"/>
-      <x:c r="J15" s="64"/>
-      <x:c r="K15" s="65"/>
-      <x:c r="L15" s="62"/>
-      <x:c r="M15" s="63"/>
-      <x:c r="N15" s="64"/>
-      <x:c r="O15" s="65"/>
-      <x:c r="P15" s="62"/>
-      <x:c r="Q15" s="63"/>
-      <x:c r="R15" s="64"/>
-      <x:c r="S15" s="65"/>
-      <x:c r="T15" s="62"/>
-      <x:c r="U15" s="63"/>
-      <x:c r="V15" s="64"/>
-      <x:c r="W15" s="65"/>
+      <x:c r="H15" s="55"/>
+      <x:c r="I15" s="56"/>
+      <x:c r="J15" s="57"/>
+      <x:c r="K15" s="58"/>
+      <x:c r="L15" s="55"/>
+      <x:c r="M15" s="56"/>
+      <x:c r="N15" s="57"/>
+      <x:c r="O15" s="58"/>
+      <x:c r="P15" s="55"/>
+      <x:c r="Q15" s="56"/>
+      <x:c r="R15" s="57"/>
+      <x:c r="S15" s="58"/>
+      <x:c r="T15" s="55"/>
+      <x:c r="U15" s="56"/>
+      <x:c r="V15" s="57"/>
+      <x:c r="W15" s="58"/>
       <x:c r="X15" s="7"/>
       <x:c r="Y15" s="2"/>
       <x:c r="Z15" s="1"/>
@@ -3234,10 +3234,10 @@
       <x:c r="AM15" s="6"/>
     </x:row>
     <x:row r="16" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A16" s="79"/>
-      <x:c r="B16" s="79"/>
+      <x:c r="A16" s="94"/>
+      <x:c r="B16" s="94"/>
       <x:c r="C16" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D16" s="5"/>
       <x:c r="E16" s="2"/>
@@ -3259,12 +3259,12 @@
       <x:c r="U16" s="2"/>
       <x:c r="V16" s="1"/>
       <x:c r="W16" s="6"/>
-      <x:c r="X16" s="62"/>
-      <x:c r="Y16" s="63"/>
-      <x:c r="Z16" s="64"/>
-      <x:c r="AA16" s="65"/>
-      <x:c r="AB16" s="62"/>
-      <x:c r="AC16" s="63"/>
+      <x:c r="X16" s="55"/>
+      <x:c r="Y16" s="56"/>
+      <x:c r="Z16" s="57"/>
+      <x:c r="AA16" s="58"/>
+      <x:c r="AB16" s="55"/>
+      <x:c r="AC16" s="56"/>
       <x:c r="AD16" s="1"/>
       <x:c r="AE16" s="6"/>
       <x:c r="AF16" s="7"/>
@@ -3277,10 +3277,10 @@
       <x:c r="AM16" s="6"/>
     </x:row>
     <x:row r="17" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A17" s="82"/>
-      <x:c r="B17" s="78"/>
+      <x:c r="A17" s="97"/>
+      <x:c r="B17" s="93"/>
       <x:c r="C17" s="36" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D17" s="5"/>
       <x:c r="E17" s="2"/>
@@ -3302,12 +3302,12 @@
       <x:c r="U17" s="2"/>
       <x:c r="V17" s="1"/>
       <x:c r="W17" s="6"/>
-      <x:c r="X17" s="62"/>
-      <x:c r="Y17" s="63"/>
-      <x:c r="Z17" s="64"/>
-      <x:c r="AA17" s="65"/>
-      <x:c r="AB17" s="62"/>
-      <x:c r="AC17" s="63"/>
+      <x:c r="X17" s="55"/>
+      <x:c r="Y17" s="56"/>
+      <x:c r="Z17" s="57"/>
+      <x:c r="AA17" s="58"/>
+      <x:c r="AB17" s="55"/>
+      <x:c r="AC17" s="56"/>
       <x:c r="AD17" s="1"/>
       <x:c r="AE17" s="6"/>
       <x:c r="AF17" s="7"/>
@@ -3320,10 +3320,10 @@
       <x:c r="AM17" s="6"/>
     </x:row>
     <x:row r="18" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A18" s="79"/>
-      <x:c r="B18" s="79"/>
+      <x:c r="A18" s="94"/>
+      <x:c r="B18" s="94"/>
       <x:c r="C18" s="36" t="s">
-        <x:v>37</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D18" s="5"/>
       <x:c r="E18" s="2"/>
@@ -3345,12 +3345,12 @@
       <x:c r="U18" s="2"/>
       <x:c r="V18" s="1"/>
       <x:c r="W18" s="6"/>
-      <x:c r="X18" s="62"/>
-      <x:c r="Y18" s="63"/>
-      <x:c r="Z18" s="64"/>
-      <x:c r="AA18" s="65"/>
-      <x:c r="AB18" s="62"/>
-      <x:c r="AC18" s="63"/>
+      <x:c r="X18" s="55"/>
+      <x:c r="Y18" s="56"/>
+      <x:c r="Z18" s="57"/>
+      <x:c r="AA18" s="58"/>
+      <x:c r="AB18" s="55"/>
+      <x:c r="AC18" s="56"/>
       <x:c r="AD18" s="1"/>
       <x:c r="AE18" s="6"/>
       <x:c r="AF18" s="7"/>
@@ -3363,10 +3363,10 @@
       <x:c r="AM18" s="6"/>
     </x:row>
     <x:row r="19" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A19" s="79"/>
-      <x:c r="B19" s="80"/>
+      <x:c r="A19" s="94"/>
+      <x:c r="B19" s="95"/>
       <x:c r="C19" s="35" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D19" s="17"/>
       <x:c r="E19" s="8"/>
@@ -3388,12 +3388,12 @@
       <x:c r="U19" s="8"/>
       <x:c r="V19" s="9"/>
       <x:c r="W19" s="10"/>
-      <x:c r="X19" s="97"/>
-      <x:c r="Y19" s="98"/>
-      <x:c r="Z19" s="99"/>
-      <x:c r="AA19" s="100"/>
-      <x:c r="AB19" s="97"/>
-      <x:c r="AC19" s="98"/>
+      <x:c r="X19" s="77"/>
+      <x:c r="Y19" s="78"/>
+      <x:c r="Z19" s="79"/>
+      <x:c r="AA19" s="80"/>
+      <x:c r="AB19" s="77"/>
+      <x:c r="AC19" s="78"/>
       <x:c r="AD19" s="9"/>
       <x:c r="AE19" s="10"/>
       <x:c r="AF19" s="11"/>
@@ -3406,12 +3406,12 @@
       <x:c r="AM19" s="10"/>
     </x:row>
     <x:row r="20" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A20" s="79"/>
-      <x:c r="B20" s="81" t="s">
-        <x:v>14</x:v>
+      <x:c r="A20" s="94"/>
+      <x:c r="B20" s="96" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C20" s="34" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D20" s="30"/>
       <x:c r="E20" s="25"/>
@@ -3433,14 +3433,14 @@
       <x:c r="U20" s="25"/>
       <x:c r="V20" s="26"/>
       <x:c r="W20" s="27"/>
-      <x:c r="X20" s="66"/>
-      <x:c r="Y20" s="67"/>
-      <x:c r="Z20" s="68"/>
-      <x:c r="AA20" s="69"/>
-      <x:c r="AB20" s="105"/>
-      <x:c r="AC20" s="106"/>
-      <x:c r="AD20" s="107"/>
-      <x:c r="AE20" s="108"/>
+      <x:c r="X20" s="59"/>
+      <x:c r="Y20" s="60"/>
+      <x:c r="Z20" s="61"/>
+      <x:c r="AA20" s="62"/>
+      <x:c r="AB20" s="85"/>
+      <x:c r="AC20" s="86"/>
+      <x:c r="AD20" s="87"/>
+      <x:c r="AE20" s="88"/>
       <x:c r="AF20" s="28"/>
       <x:c r="AG20" s="25"/>
       <x:c r="AH20" s="26"/>
@@ -3451,10 +3451,10 @@
       <x:c r="AM20" s="27"/>
     </x:row>
     <x:row r="21" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A21" s="79"/>
-      <x:c r="B21" s="80"/>
+      <x:c r="A21" s="94"/>
+      <x:c r="B21" s="95"/>
       <x:c r="C21" s="35" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D21" s="17"/>
       <x:c r="E21" s="8"/>
@@ -3480,26 +3480,26 @@
       <x:c r="Y21" s="8"/>
       <x:c r="Z21" s="9"/>
       <x:c r="AA21" s="10"/>
-      <x:c r="AB21" s="101"/>
-      <x:c r="AC21" s="102"/>
-      <x:c r="AD21" s="103"/>
-      <x:c r="AE21" s="104"/>
-      <x:c r="AF21" s="101"/>
-      <x:c r="AG21" s="102"/>
-      <x:c r="AH21" s="103"/>
-      <x:c r="AI21" s="104"/>
+      <x:c r="AB21" s="81"/>
+      <x:c r="AC21" s="82"/>
+      <x:c r="AD21" s="83"/>
+      <x:c r="AE21" s="84"/>
+      <x:c r="AF21" s="81"/>
+      <x:c r="AG21" s="82"/>
+      <x:c r="AH21" s="83"/>
+      <x:c r="AI21" s="84"/>
       <x:c r="AJ21" s="11"/>
       <x:c r="AK21" s="8"/>
       <x:c r="AL21" s="9"/>
       <x:c r="AM21" s="10"/>
     </x:row>
     <x:row r="22" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A22" s="79"/>
-      <x:c r="B22" s="82" t="s">
-        <x:v>5</x:v>
+      <x:c r="A22" s="94"/>
+      <x:c r="B22" s="97" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C22" s="37" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D22" s="31"/>
       <x:c r="E22" s="13"/>
@@ -3533,16 +3533,16 @@
       <x:c r="AG22" s="13"/>
       <x:c r="AH22" s="14"/>
       <x:c r="AI22" s="15"/>
-      <x:c r="AJ22" s="91"/>
-      <x:c r="AK22" s="92"/>
+      <x:c r="AJ22" s="71"/>
+      <x:c r="AK22" s="72"/>
       <x:c r="AL22" s="14"/>
       <x:c r="AM22" s="15"/>
     </x:row>
     <x:row r="23" spans="1:39" ht="21.94999999999999928946" customHeight="1">
-      <x:c r="A23" s="80"/>
-      <x:c r="B23" s="80"/>
+      <x:c r="A23" s="95"/>
+      <x:c r="B23" s="95"/>
       <x:c r="C23" s="35" t="s">
-        <x:v>31</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D23" s="17"/>
       <x:c r="E23" s="8"/>
@@ -3576,10 +3576,10 @@
       <x:c r="AG23" s="8"/>
       <x:c r="AH23" s="9"/>
       <x:c r="AI23" s="10"/>
-      <x:c r="AJ23" s="93"/>
-      <x:c r="AK23" s="94"/>
-      <x:c r="AL23" s="95"/>
-      <x:c r="AM23" s="96"/>
+      <x:c r="AJ23" s="73"/>
+      <x:c r="AK23" s="74"/>
+      <x:c r="AL23" s="75"/>
+      <x:c r="AM23" s="76"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="18">
@@ -3602,7 +3602,7 @@
     <x:mergeCell ref="L4:O4"/>
     <x:mergeCell ref="P4:S4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>